--- a/STGGame/Assets/MainEditor/Design/Configs/G_Bullet.xlsx
+++ b/STGGame/Assets/MainEditor/Design/Configs/G_Bullet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="4540" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10740" yWindow="4545" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>harm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -38,27 +34,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>life</t>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addKeyToLuaTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,19 +74,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addKeyToLuaTable</t>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色咒符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色咒符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,31 +106,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色咒符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色咒符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>种类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -118,23 +130,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>频度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
+    <t>viewCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -145,8 +145,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,15 +214,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -550,172 +550,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" customWidth="1"/>
-    <col min="5" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="7" width="5.625" customWidth="1"/>
+    <col min="8" max="8" width="5.875" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
     <col min="10" max="10" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" hidden="1"/>
     <row r="5" spans="1:10" hidden="1"/>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
-        <v>10500001</v>
+        <v>10510100</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="F6">
-        <v>999</v>
+        <v>0.1</v>
       </c>
       <c r="G6">
-        <v>0.1</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>40510100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
-        <v>10500002</v>
+        <v>10510200</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="F7">
-        <v>999</v>
+        <v>0.4</v>
       </c>
       <c r="G7">
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>40510200</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -731,18 +731,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/STGGame/Assets/MainEditor/Design/Configs/G_Bullet.xlsx
+++ b/STGGame/Assets/MainEditor/Design/Configs/G_Bullet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="4545" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="8120" yWindow="11920" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -145,8 +145,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,15 +214,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -550,21 +550,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="7" width="5.625" customWidth="1"/>
-    <col min="8" max="8" width="5.875" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
     <col min="10" max="10" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -677,7 +677,7 @@
         <v>0.1</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0.4</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -731,14 +731,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/STGGame/Assets/MainEditor/Design/Configs/G_Bullet.xlsx
+++ b/STGGame/Assets/MainEditor/Design/Configs/G_Bullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8120" yWindow="11920" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="14280" yWindow="9260" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -554,7 +554,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/STGGame/Assets/MainEditor/Design/Configs/G_Bullet.xlsx
+++ b/STGGame/Assets/MainEditor/Design/Configs/G_Bullet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="9260" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="14280" yWindow="9255" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>harm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,15 +138,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
+    <t>小圆球系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭头系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛玉系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大玉系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>405208{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>405204{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>405203{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>405202{0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,15 +246,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -550,21 +582,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="7" width="5.625" customWidth="1"/>
+    <col min="8" max="8" width="5.875" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
     <col min="10" max="10" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -655,7 +687,7 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" hidden="1"/>
@@ -716,6 +748,122 @@
       </c>
       <c r="J7" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>10520200</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>999</v>
+      </c>
+      <c r="F8">
+        <v>0.4</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>10520300</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>999</v>
+      </c>
+      <c r="F9">
+        <v>0.4</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>10520400</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>999</v>
+      </c>
+      <c r="F10">
+        <v>0.4</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>10520800</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>999</v>
+      </c>
+      <c r="F11">
+        <v>0.4</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -731,14 +879,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
